--- a/Document/服务端工作计划.xlsx
+++ b/Document/服务端工作计划.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
   <si>
     <t>事项</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -213,10 +213,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>内网服务器配置制定、比价、选购</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>阿里云账号实名认证及域名备案</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -225,15 +221,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>网关服务器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>完成情况</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>招聘</t>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内网刀片服务器配置比价、制定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>招聘简历筛选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网关服务器Code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里云服务器选购</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钉钉企业群重建</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -388,14 +400,41 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -403,40 +442,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -776,10 +788,10 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -799,8 +811,8 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
@@ -818,8 +830,8 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="26"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
@@ -837,8 +849,8 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
@@ -856,8 +868,8 @@
       <c r="A6" s="1">
         <v>7</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -871,8 +883,8 @@
       <c r="A7" s="1">
         <v>8</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
@@ -884,8 +896,8 @@
       <c r="A8" s="1">
         <v>9</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
@@ -897,8 +909,8 @@
     </row>
     <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="1" t="s">
         <v>42</v>
       </c>
@@ -914,8 +926,8 @@
     </row>
     <row r="10" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="1" t="s">
         <v>41</v>
       </c>
@@ -933,8 +945,8 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -948,8 +960,8 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
@@ -961,7 +973,7 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="21" t="s">
@@ -984,7 +996,7 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="29"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="22"/>
       <c r="D14" s="6" t="s">
         <v>18</v>
@@ -1003,10 +1015,10 @@
       <c r="A15" s="1">
         <v>16</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -1026,8 +1038,8 @@
       <c r="A16" s="1">
         <v>17</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="26"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="4" t="s">
         <v>4</v>
       </c>
@@ -1043,8 +1055,8 @@
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="26"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="4" t="s">
         <v>5</v>
       </c>
@@ -1060,8 +1072,8 @@
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="26"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="4" t="s">
         <v>6</v>
       </c>
@@ -1077,8 +1089,8 @@
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="23" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="27" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1090,8 +1102,8 @@
     </row>
     <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="24"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="1" t="s">
         <v>4</v>
       </c>
@@ -1101,8 +1113,8 @@
     </row>
     <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="24"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1112,7 +1124,7 @@
     </row>
     <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="19"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="21" t="s">
         <v>12</v>
       </c>
@@ -1133,7 +1145,7 @@
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="22"/>
       <c r="D23" s="4" t="s">
         <v>14</v>
@@ -1152,8 +1164,8 @@
       <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="13" t="s">
+      <c r="B24" s="18"/>
+      <c r="C24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1167,8 +1179,8 @@
       <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="15"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,10 +1192,10 @@
       <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1197,8 +1209,8 @@
       <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="27"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="1" t="s">
         <v>4</v>
       </c>
@@ -1210,8 +1222,8 @@
       <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="26"/>
       <c r="D28" s="1" t="s">
         <v>24</v>
       </c>
@@ -1223,8 +1235,8 @@
       <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="13" t="s">
+      <c r="B29" s="18"/>
+      <c r="C29" s="15" t="s">
         <v>26</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1238,8 +1250,8 @@
       <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="14"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1251,8 +1263,8 @@
       <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="15"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1264,8 +1276,8 @@
       <c r="A32" s="1">
         <v>29</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="16" t="s">
+      <c r="B32" s="18"/>
+      <c r="C32" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1279,8 +1291,8 @@
       <c r="A33" s="1">
         <v>30</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="17"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="26"/>
       <c r="D33" s="1" t="s">
         <v>32</v>
       </c>
@@ -1466,12 +1478,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="B26:B33"/>
@@ -1481,6 +1487,12 @@
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1502,10 +1514,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993BD96E-3EBA-4A79-AB70-A77E45243A18}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1538,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1552,9 +1564,11 @@
         <v>1</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="32"/>
@@ -1563,9 +1577,11 @@
         <v>2</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="9"/>
+        <v>47</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="32"/>
@@ -1574,9 +1590,11 @@
         <v>3</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="32"/>
@@ -1585,26 +1603,54 @@
         <v>4</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="9"/>
+        <v>48</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="11">
         <v>5</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="11">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="11">
+        <v>7</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="B3:B9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/服务端工作计划.xlsx
+++ b/Document/服务端工作计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="细分" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
   <si>
     <t>事项</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -246,6 +246,10 @@
   </si>
   <si>
     <t>钉钉企业群重建</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州出差及区块链技术初步分析</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -400,55 +404,55 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -746,9 +750,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -758,7 +762,7 @@
     <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -788,10 +792,10 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -811,8 +815,8 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
@@ -830,8 +834,8 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="14"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
@@ -849,8 +853,8 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
@@ -868,8 +872,8 @@
       <c r="A6" s="1">
         <v>7</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -883,8 +887,8 @@
       <c r="A7" s="1">
         <v>8</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="20"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
@@ -896,8 +900,8 @@
       <c r="A8" s="1">
         <v>9</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,8 +913,8 @@
     </row>
     <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="1" t="s">
         <v>42</v>
       </c>
@@ -926,8 +930,8 @@
     </row>
     <row r="10" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="16"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="1" t="s">
         <v>41</v>
       </c>
@@ -945,8 +949,8 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -960,8 +964,8 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="16"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
@@ -973,7 +977,7 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="21" t="s">
@@ -996,7 +1000,7 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="22"/>
       <c r="D14" s="6" t="s">
         <v>18</v>
@@ -1015,10 +1019,10 @@
       <c r="A15" s="1">
         <v>16</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -1038,8 +1042,8 @@
       <c r="A16" s="1">
         <v>17</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="14"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="4" t="s">
         <v>4</v>
       </c>
@@ -1055,8 +1059,8 @@
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="4" t="s">
         <v>5</v>
       </c>
@@ -1072,8 +1076,8 @@
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="14"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="4" t="s">
         <v>6</v>
       </c>
@@ -1089,8 +1093,8 @@
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="27" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="23" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1102,8 +1106,8 @@
     </row>
     <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="28"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="1" t="s">
         <v>4</v>
       </c>
@@ -1113,8 +1117,8 @@
     </row>
     <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="28"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1124,7 +1128,7 @@
     </row>
     <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="18"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="21" t="s">
         <v>12</v>
       </c>
@@ -1145,7 +1149,7 @@
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="22"/>
       <c r="D23" s="4" t="s">
         <v>14</v>
@@ -1164,38 +1168,50 @@
       <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="15" t="s">
+      <c r="B24" s="19"/>
+      <c r="C24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="9"/>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="10">
+        <v>43175</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="1" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="9"/>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="10">
+        <v>43175</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="16" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1209,8 +1225,8 @@
       <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="29"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="1" t="s">
         <v>4</v>
       </c>
@@ -1222,8 +1238,8 @@
       <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="26"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="1" t="s">
         <v>24</v>
       </c>
@@ -1235,8 +1251,8 @@
       <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="19"/>
+      <c r="C29" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1250,8 +1266,8 @@
       <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1263,8 +1279,8 @@
       <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="16"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1276,8 +1292,8 @@
       <c r="A32" s="1">
         <v>29</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="25" t="s">
+      <c r="B32" s="19"/>
+      <c r="C32" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1291,8 +1307,8 @@
       <c r="A33" s="1">
         <v>30</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="26"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="1" t="s">
         <v>32</v>
       </c>
@@ -1478,6 +1494,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="B26:B33"/>
@@ -1487,12 +1509,6 @@
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1514,10 +1530,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993BD96E-3EBA-4A79-AB70-A77E45243A18}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1636,21 +1652,34 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="11">
         <v>7</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="11">
+        <v>8</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E10" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="B3:B10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/服务端工作计划.xlsx
+++ b/Document/服务端工作计划.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:400001_{FE54974E-3923-4886-8B50-359E7C5B7C1E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="细分" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
   <si>
     <t>事项</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -250,6 +251,14 @@
   </si>
   <si>
     <t>杭州出差及区块链技术初步分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>招聘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里云RAM账号设置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -404,14 +413,41 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -419,40 +455,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -750,7 +759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
@@ -792,10 +801,10 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -815,8 +824,8 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
@@ -834,8 +843,8 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="26"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
@@ -853,8 +862,8 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
@@ -872,8 +881,8 @@
       <c r="A6" s="1">
         <v>7</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -887,8 +896,8 @@
       <c r="A7" s="1">
         <v>8</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +909,8 @@
       <c r="A8" s="1">
         <v>9</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
@@ -913,8 +922,8 @@
     </row>
     <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="1" t="s">
         <v>42</v>
       </c>
@@ -930,8 +939,8 @@
     </row>
     <row r="10" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="1" t="s">
         <v>41</v>
       </c>
@@ -949,8 +958,8 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -964,8 +973,8 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
@@ -977,7 +986,7 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="21" t="s">
@@ -1000,7 +1009,7 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="29"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="22"/>
       <c r="D14" s="6" t="s">
         <v>18</v>
@@ -1019,10 +1028,10 @@
       <c r="A15" s="1">
         <v>16</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -1042,8 +1051,8 @@
       <c r="A16" s="1">
         <v>17</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="26"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="4" t="s">
         <v>4</v>
       </c>
@@ -1059,8 +1068,8 @@
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="26"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="4" t="s">
         <v>5</v>
       </c>
@@ -1076,8 +1085,8 @@
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="26"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="4" t="s">
         <v>6</v>
       </c>
@@ -1093,8 +1102,8 @@
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="23" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="27" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1106,8 +1115,8 @@
     </row>
     <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="24"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="1" t="s">
         <v>4</v>
       </c>
@@ -1117,8 +1126,8 @@
     </row>
     <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="24"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1128,7 +1137,7 @@
     </row>
     <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="19"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="21" t="s">
         <v>12</v>
       </c>
@@ -1149,7 +1158,7 @@
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="22"/>
       <c r="D23" s="4" t="s">
         <v>14</v>
@@ -1168,7 +1177,7 @@
       <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="21" t="s">
         <v>8</v>
       </c>
@@ -1189,7 +1198,7 @@
       <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25" s="20"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="22"/>
       <c r="D25" s="4" t="s">
         <v>20</v>
@@ -1208,10 +1217,10 @@
       <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1225,8 +1234,8 @@
       <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="27"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="1" t="s">
         <v>4</v>
       </c>
@@ -1238,8 +1247,8 @@
       <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="26"/>
       <c r="D28" s="1" t="s">
         <v>24</v>
       </c>
@@ -1251,8 +1260,8 @@
       <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="13" t="s">
+      <c r="B29" s="18"/>
+      <c r="C29" s="15" t="s">
         <v>26</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1266,8 +1275,8 @@
       <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="14"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1279,8 +1288,8 @@
       <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="15"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1292,8 +1301,8 @@
       <c r="A32" s="1">
         <v>29</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="16" t="s">
+      <c r="B32" s="18"/>
+      <c r="C32" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1307,8 +1316,8 @@
       <c r="A33" s="1">
         <v>30</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="17"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="26"/>
       <c r="D33" s="1" t="s">
         <v>32</v>
       </c>
@@ -1494,12 +1503,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="B26:B33"/>
@@ -1509,6 +1512,12 @@
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1530,10 +1539,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993BD96E-3EBA-4A79-AB70-A77E45243A18}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1673,13 +1682,99 @@
       <c r="D10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="31">
+        <v>43178</v>
+      </c>
+      <c r="B11" s="31">
+        <v>43182</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="11">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="11">
+        <v>3</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="11">
+        <v>4</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="11">
+        <v>5</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="11">
+        <v>6</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="11">
+        <v>7</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="11">
+        <v>8</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="B3:B10"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="B11:B18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/服务端工作计划.xlsx
+++ b/Document/服务端工作计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:400001_{FE54974E-3923-4886-8B50-359E7C5B7C1E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:400001_{C4A77C88-4899-472B-89B1-37807471078B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
   <si>
     <t>事项</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -254,11 +254,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>招聘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>阿里云RAM账号设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel表格读取工具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>core与protobuf工程解耦合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨地理区域登陆流程设计方案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历筛选及招聘</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -413,55 +429,55 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -801,10 +817,10 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -824,8 +840,8 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
@@ -843,8 +859,8 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="14"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
@@ -862,8 +878,8 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
@@ -881,8 +897,8 @@
       <c r="A6" s="1">
         <v>7</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -896,8 +912,8 @@
       <c r="A7" s="1">
         <v>8</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="20"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
@@ -909,8 +925,8 @@
       <c r="A8" s="1">
         <v>9</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
@@ -922,8 +938,8 @@
     </row>
     <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="1" t="s">
         <v>42</v>
       </c>
@@ -939,8 +955,8 @@
     </row>
     <row r="10" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="16"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="1" t="s">
         <v>41</v>
       </c>
@@ -958,8 +974,8 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -973,8 +989,8 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="16"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
@@ -986,7 +1002,7 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="21" t="s">
@@ -1009,7 +1025,7 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="22"/>
       <c r="D14" s="6" t="s">
         <v>18</v>
@@ -1028,10 +1044,10 @@
       <c r="A15" s="1">
         <v>16</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -1051,8 +1067,8 @@
       <c r="A16" s="1">
         <v>17</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="14"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="4" t="s">
         <v>4</v>
       </c>
@@ -1068,8 +1084,8 @@
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="4" t="s">
         <v>5</v>
       </c>
@@ -1085,8 +1101,8 @@
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="14"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="4" t="s">
         <v>6</v>
       </c>
@@ -1102,8 +1118,8 @@
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="27" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="23" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1115,8 +1131,8 @@
     </row>
     <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="28"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="1" t="s">
         <v>4</v>
       </c>
@@ -1126,8 +1142,8 @@
     </row>
     <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="28"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1137,7 +1153,7 @@
     </row>
     <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="18"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="21" t="s">
         <v>12</v>
       </c>
@@ -1158,7 +1174,7 @@
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="22"/>
       <c r="D23" s="4" t="s">
         <v>14</v>
@@ -1177,7 +1193,7 @@
       <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="21" t="s">
         <v>8</v>
       </c>
@@ -1198,7 +1214,7 @@
       <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="22"/>
       <c r="D25" s="4" t="s">
         <v>20</v>
@@ -1217,10 +1233,10 @@
       <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="16" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1234,8 +1250,8 @@
       <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="29"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="1" t="s">
         <v>4</v>
       </c>
@@ -1247,8 +1263,8 @@
       <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="26"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="1" t="s">
         <v>24</v>
       </c>
@@ -1260,8 +1276,8 @@
       <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="19"/>
+      <c r="C29" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1275,8 +1291,8 @@
       <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1288,8 +1304,8 @@
       <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="16"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1301,8 +1317,8 @@
       <c r="A32" s="1">
         <v>29</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="25" t="s">
+      <c r="B32" s="19"/>
+      <c r="C32" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1316,8 +1332,8 @@
       <c r="A33" s="1">
         <v>30</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="26"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="1" t="s">
         <v>32</v>
       </c>
@@ -1503,6 +1519,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="B26:B33"/>
@@ -1512,12 +1534,6 @@
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1539,10 +1555,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993BD96E-3EBA-4A79-AB70-A77E45243A18}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1696,10 +1715,12 @@
       <c r="C11" s="11">
         <v>1</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="32"/>
@@ -1708,7 +1729,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>50</v>
@@ -1720,8 +1741,12 @@
       <c r="C13" s="11">
         <v>3</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="32"/>
@@ -1729,8 +1754,12 @@
       <c r="C14" s="11">
         <v>4</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="D14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="32"/>
@@ -1738,8 +1767,12 @@
       <c r="C15" s="11">
         <v>5</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="32"/>
@@ -1747,34 +1780,98 @@
       <c r="C16" s="11">
         <v>6</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
+      <c r="A17" s="31">
+        <v>43185</v>
+      </c>
+      <c r="B17" s="31">
+        <v>43189</v>
+      </c>
       <c r="C17" s="11">
-        <v>7</v>
-      </c>
-      <c r="D17" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="D17" s="12"/>
       <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="11">
+        <v>3</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="11">
+        <v>4</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="11">
+        <v>5</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="11">
+        <v>6</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="11">
+        <v>7</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="11">
+        <v>8</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="B17:B24"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="B3:B10"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
